--- a/static/Вариации.xlsx
+++ b/static/Вариации.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\art-project\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91A97C-2376-4A20-9E0F-51B00833569E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Вариации" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Вариации" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,265 +25,307 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Опубликован</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рекомендуемый?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимость в каталоге</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Краткое описание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата начала действия скидки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата окончания действия скидки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статус налога</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Налоговый класс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В наличии?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запасы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Величина малых запасов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возможен ли предзаказ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продано индивидуально?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вес (kg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Длина (cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ширина (cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высота (cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разрешить отзывы от клиентов?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Примечание к покупке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Акционная цена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Базовая цена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Категории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Класс доставки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изображения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лимит загрузок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дней срока загрузки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Родительский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сгруппированные товары</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апсейл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кросселы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внешний URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текст кнопки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Позиция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название атрибута 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значения атрибутов 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимость атрибута 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глобальный атрибут 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атрибут 1 по умолчанию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название атрибута 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значения атрибутов 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимость атрибута 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глобальный атрибут 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атрибут 2 по умолчанию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название атрибута 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значения атрибутов 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимость атрибута 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глобальный атрибут 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атрибут 3 по умолчанию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название атрибута 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значения атрибутов 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Видимость атрибута 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глобальный атрибут 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Размеры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крепления</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Классические крепления</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Материал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виниловый холст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хлопковый холст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Липучки на стену</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40x60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40x50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x60</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="98">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Опубликован</t>
+  </si>
+  <si>
+    <t>рекомендуемый?</t>
+  </si>
+  <si>
+    <t>Видимость в каталоге</t>
+  </si>
+  <si>
+    <t>Краткое описание</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Дата начала действия скидки</t>
+  </si>
+  <si>
+    <t>Дата окончания действия скидки</t>
+  </si>
+  <si>
+    <t>Статус налога</t>
+  </si>
+  <si>
+    <t>Налоговый класс</t>
+  </si>
+  <si>
+    <t>В наличии?</t>
+  </si>
+  <si>
+    <t>Запасы</t>
+  </si>
+  <si>
+    <t>Величина малых запасов</t>
+  </si>
+  <si>
+    <t>Возможен ли предзаказ?</t>
+  </si>
+  <si>
+    <t>Продано индивидуально?</t>
+  </si>
+  <si>
+    <t>Вес (kg)</t>
+  </si>
+  <si>
+    <t>Длина (cm)</t>
+  </si>
+  <si>
+    <t>Ширина (cm)</t>
+  </si>
+  <si>
+    <t>Высота (cm)</t>
+  </si>
+  <si>
+    <t>Разрешить отзывы от клиентов?</t>
+  </si>
+  <si>
+    <t>Примечание к покупке</t>
+  </si>
+  <si>
+    <t>Акционная цена</t>
+  </si>
+  <si>
+    <t>Базовая цена</t>
+  </si>
+  <si>
+    <t>Категории</t>
+  </si>
+  <si>
+    <t>Метки</t>
+  </si>
+  <si>
+    <t>Класс доставки</t>
+  </si>
+  <si>
+    <t>Изображения</t>
+  </si>
+  <si>
+    <t>Лимит загрузок</t>
+  </si>
+  <si>
+    <t>Дней срока загрузки</t>
+  </si>
+  <si>
+    <t>Родительский</t>
+  </si>
+  <si>
+    <t>Сгруппированные товары</t>
+  </si>
+  <si>
+    <t>Апсейл</t>
+  </si>
+  <si>
+    <t>Кросселы</t>
+  </si>
+  <si>
+    <t>Внешний URL</t>
+  </si>
+  <si>
+    <t>Текст кнопки</t>
+  </si>
+  <si>
+    <t>Позиция</t>
+  </si>
+  <si>
+    <t>Название атрибута 1</t>
+  </si>
+  <si>
+    <t>Значения атрибутов 1</t>
+  </si>
+  <si>
+    <t>Видимость атрибута 1</t>
+  </si>
+  <si>
+    <t>Глобальный атрибут 1</t>
+  </si>
+  <si>
+    <t>Атрибут 1 по умолчанию</t>
+  </si>
+  <si>
+    <t>Название атрибута 2</t>
+  </si>
+  <si>
+    <t>Значения атрибутов 2</t>
+  </si>
+  <si>
+    <t>Видимость атрибута 2</t>
+  </si>
+  <si>
+    <t>Глобальный атрибут 2</t>
+  </si>
+  <si>
+    <t>Атрибут 2 по умолчанию</t>
+  </si>
+  <si>
+    <t>Название атрибута 3</t>
+  </si>
+  <si>
+    <t>Значения атрибутов 3</t>
+  </si>
+  <si>
+    <t>Видимость атрибута 3</t>
+  </si>
+  <si>
+    <t>Глобальный атрибут 3</t>
+  </si>
+  <si>
+    <t>Атрибут 3 по умолчанию</t>
+  </si>
+  <si>
+    <t>Название атрибута 4</t>
+  </si>
+  <si>
+    <t>Значения атрибутов 4</t>
+  </si>
+  <si>
+    <t>Видимость атрибута 4</t>
+  </si>
+  <si>
+    <t>Глобальный атрибут 4</t>
+  </si>
+  <si>
+    <t>50*70</t>
+  </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>taxable</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Размеры</t>
+  </si>
+  <si>
+    <t>30x40</t>
+  </si>
+  <si>
+    <t>Крепления</t>
+  </si>
+  <si>
+    <t>Классические крепления</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Виниловый холст</t>
+  </si>
+  <si>
+    <t>Хлопковый холст</t>
+  </si>
+  <si>
+    <t>Липучки на стену</t>
+  </si>
+  <si>
+    <t>40x60</t>
+  </si>
+  <si>
+    <t>50x70</t>
+  </si>
+  <si>
+    <t>60x80</t>
+  </si>
+  <si>
+    <t>50*60</t>
+  </si>
+  <si>
+    <t>40x50</t>
+  </si>
+  <si>
+    <t>50x60</t>
+  </si>
+  <si>
+    <t>60x70</t>
+  </si>
+  <si>
+    <t>50*50</t>
+  </si>
+  <si>
+    <t>30x30</t>
+  </si>
+  <si>
+    <t>40x40</t>
+  </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t>60x60</t>
+  </si>
+  <si>
+    <t>30x60</t>
+  </si>
+  <si>
+    <t>40x80</t>
+  </si>
+  <si>
+    <t>50x100</t>
+  </si>
+  <si>
+    <t>60x120</t>
+  </si>
+  <si>
+    <t>50*100</t>
+  </si>
+  <si>
+    <t>30x48</t>
+  </si>
+  <si>
+    <t>40x64</t>
+  </si>
+  <si>
+    <t>50x80</t>
+  </si>
+  <si>
+    <t>60x96</t>
+  </si>
+  <si>
+    <t>50*80</t>
+  </si>
+  <si>
+    <t>50*90</t>
+  </si>
+  <si>
+    <t>30x54</t>
+  </si>
+  <si>
+    <t>40x72</t>
+  </si>
+  <si>
+    <t>50x90</t>
+  </si>
+  <si>
+    <t>60x108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,26 +334,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,7 +349,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -326,74 +357,336 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BF66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BF97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,17 +862,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -591,22 +884,22 @@
       <c r="M2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="n">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
         <v>1450</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="1">
         <v>1</v>
       </c>
       <c r="AN2" s="1" t="s">
@@ -615,7 +908,7 @@
       <c r="AO2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ2" s="1" t="n">
+      <c r="AQ2" s="1">
         <v>1</v>
       </c>
       <c r="AS2" s="1" t="s">
@@ -624,7 +917,7 @@
       <c r="AT2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV2" s="1" t="n">
+      <c r="AV2" s="1">
         <v>1</v>
       </c>
       <c r="AX2" s="1" t="s">
@@ -633,21 +926,21 @@
       <c r="AY2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -659,22 +952,22 @@
       <c r="M3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="n">
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
         <v>2160</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="1">
         <v>2</v>
       </c>
       <c r="AN3" s="1" t="s">
@@ -683,7 +976,7 @@
       <c r="AO3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ3" s="1" t="n">
+      <c r="AQ3" s="1">
         <v>1</v>
       </c>
       <c r="AS3" s="1" t="s">
@@ -692,7 +985,7 @@
       <c r="AT3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV3" s="1" t="n">
+      <c r="AV3" s="1">
         <v>1</v>
       </c>
       <c r="AX3" s="1" t="s">
@@ -701,21 +994,21 @@
       <c r="AY3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA3" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -727,22 +1020,22 @@
       <c r="M4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="n">
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
         <v>1940</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="1">
         <v>3</v>
       </c>
       <c r="AN4" s="1" t="s">
@@ -751,7 +1044,7 @@
       <c r="AO4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="1" t="n">
+      <c r="AQ4" s="1">
         <v>1</v>
       </c>
       <c r="AS4" s="1" t="s">
@@ -760,7 +1053,7 @@
       <c r="AT4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV4" s="1" t="n">
+      <c r="AV4" s="1">
         <v>1</v>
       </c>
       <c r="AX4" s="1" t="s">
@@ -769,21 +1062,21 @@
       <c r="AY4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -795,22 +1088,22 @@
       <c r="M5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="n">
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
         <v>2650</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="AM5" s="1">
         <v>4</v>
       </c>
       <c r="AN5" s="1" t="s">
@@ -819,7 +1112,7 @@
       <c r="AO5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="1" t="n">
+      <c r="AQ5" s="1">
         <v>1</v>
       </c>
       <c r="AS5" s="1" t="s">
@@ -828,7 +1121,7 @@
       <c r="AT5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV5" s="1" t="n">
+      <c r="AV5" s="1">
         <v>1</v>
       </c>
       <c r="AX5" s="1" t="s">
@@ -837,21 +1130,21 @@
       <c r="AY5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -863,22 +1156,22 @@
       <c r="M6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="n">
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>2250</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="AM6" s="1">
         <v>5</v>
       </c>
       <c r="AN6" s="1" t="s">
@@ -887,7 +1180,7 @@
       <c r="AO6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ6" s="1" t="n">
+      <c r="AQ6" s="1">
         <v>1</v>
       </c>
       <c r="AS6" s="1" t="s">
@@ -896,7 +1189,7 @@
       <c r="AT6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV6" s="1" t="n">
+      <c r="AV6" s="1">
         <v>1</v>
       </c>
       <c r="AX6" s="1" t="s">
@@ -905,21 +1198,21 @@
       <c r="AY6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -931,22 +1224,22 @@
       <c r="M7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1" t="n">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>2990</v>
       </c>
-      <c r="AM7" s="1" t="n">
+      <c r="AM7" s="1">
         <v>6</v>
       </c>
       <c r="AN7" s="1" t="s">
@@ -955,7 +1248,7 @@
       <c r="AO7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ7" s="1" t="n">
+      <c r="AQ7" s="1">
         <v>1</v>
       </c>
       <c r="AS7" s="1" t="s">
@@ -964,7 +1257,7 @@
       <c r="AT7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV7" s="1" t="n">
+      <c r="AV7" s="1">
         <v>1</v>
       </c>
       <c r="AX7" s="1" t="s">
@@ -973,21 +1266,21 @@
       <c r="AY7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -999,22 +1292,22 @@
       <c r="M8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1" t="n">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>2740</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="AM8" s="1">
         <v>7</v>
       </c>
       <c r="AN8" s="1" t="s">
@@ -1023,7 +1316,7 @@
       <c r="AO8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ8" s="1" t="n">
+      <c r="AQ8" s="1">
         <v>1</v>
       </c>
       <c r="AS8" s="1" t="s">
@@ -1032,7 +1325,7 @@
       <c r="AT8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="1" t="n">
+      <c r="AV8" s="1">
         <v>1</v>
       </c>
       <c r="AX8" s="1" t="s">
@@ -1041,21 +1334,21 @@
       <c r="AY8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1067,22 +1360,22 @@
       <c r="M9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1" t="n">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <v>3480</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="1">
         <v>8</v>
       </c>
       <c r="AN9" s="1" t="s">
@@ -1091,7 +1384,7 @@
       <c r="AO9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ9" s="1" t="n">
+      <c r="AQ9" s="1">
         <v>1</v>
       </c>
       <c r="AS9" s="1" t="s">
@@ -1100,7 +1393,7 @@
       <c r="AT9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV9" s="1" t="n">
+      <c r="AV9" s="1">
         <v>1</v>
       </c>
       <c r="AX9" s="1" t="s">
@@ -1109,21 +1402,21 @@
       <c r="AY9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1135,22 +1428,22 @@
       <c r="M10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1" t="n">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>3050</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="1">
         <v>9</v>
       </c>
       <c r="AN10" s="1" t="s">
@@ -1159,7 +1452,7 @@
       <c r="AO10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ10" s="1" t="n">
+      <c r="AQ10" s="1">
         <v>1</v>
       </c>
       <c r="AS10" s="1" t="s">
@@ -1168,7 +1461,7 @@
       <c r="AT10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV10" s="1" t="n">
+      <c r="AV10" s="1">
         <v>1</v>
       </c>
       <c r="AX10" s="1" t="s">
@@ -1177,21 +1470,21 @@
       <c r="AY10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1203,22 +1496,22 @@
       <c r="M11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="n">
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
         <v>3890</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="1">
         <v>10</v>
       </c>
       <c r="AN11" s="1" t="s">
@@ -1227,7 +1520,7 @@
       <c r="AO11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ11" s="1" t="n">
+      <c r="AQ11" s="1">
         <v>1</v>
       </c>
       <c r="AS11" s="1" t="s">
@@ -1236,7 +1529,7 @@
       <c r="AT11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV11" s="1" t="n">
+      <c r="AV11" s="1">
         <v>1</v>
       </c>
       <c r="AX11" s="1" t="s">
@@ -1245,21 +1538,21 @@
       <c r="AY11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1271,22 +1564,22 @@
       <c r="M12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="n">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <v>3540</v>
       </c>
-      <c r="AM12" s="1" t="n">
+      <c r="AM12" s="1">
         <v>11</v>
       </c>
       <c r="AN12" s="1" t="s">
@@ -1295,7 +1588,7 @@
       <c r="AO12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ12" s="1" t="n">
+      <c r="AQ12" s="1">
         <v>1</v>
       </c>
       <c r="AS12" s="1" t="s">
@@ -1304,7 +1597,7 @@
       <c r="AT12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV12" s="1" t="n">
+      <c r="AV12" s="1">
         <v>1</v>
       </c>
       <c r="AX12" s="1" t="s">
@@ -1313,21 +1606,21 @@
       <c r="AY12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1339,22 +1632,22 @@
       <c r="M13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1" t="n">
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
         <v>4380</v>
       </c>
-      <c r="AM13" s="1" t="n">
+      <c r="AM13" s="1">
         <v>12</v>
       </c>
       <c r="AN13" s="1" t="s">
@@ -1363,7 +1656,7 @@
       <c r="AO13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ13" s="1" t="n">
+      <c r="AQ13" s="1">
         <v>1</v>
       </c>
       <c r="AS13" s="1" t="s">
@@ -1372,7 +1665,7 @@
       <c r="AT13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV13" s="1" t="n">
+      <c r="AV13" s="1">
         <v>1</v>
       </c>
       <c r="AX13" s="1" t="s">
@@ -1381,21 +1674,21 @@
       <c r="AY13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1407,22 +1700,22 @@
       <c r="M14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1" t="n">
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>3880</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="AM14" s="1">
         <v>13</v>
       </c>
       <c r="AN14" s="1" t="s">
@@ -1431,7 +1724,7 @@
       <c r="AO14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ14" s="1" t="n">
+      <c r="AQ14" s="1">
         <v>1</v>
       </c>
       <c r="AS14" s="1" t="s">
@@ -1440,7 +1733,7 @@
       <c r="AT14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV14" s="1" t="n">
+      <c r="AV14" s="1">
         <v>1</v>
       </c>
       <c r="AX14" s="1" t="s">
@@ -1449,21 +1742,21 @@
       <c r="AY14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA14" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1475,22 +1768,22 @@
       <c r="M15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1" t="n">
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <v>4890</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="AM15" s="1">
         <v>14</v>
       </c>
       <c r="AN15" s="1" t="s">
@@ -1499,7 +1792,7 @@
       <c r="AO15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ15" s="1" t="n">
+      <c r="AQ15" s="1">
         <v>1</v>
       </c>
       <c r="AS15" s="1" t="s">
@@ -1508,7 +1801,7 @@
       <c r="AT15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV15" s="1" t="n">
+      <c r="AV15" s="1">
         <v>1</v>
       </c>
       <c r="AX15" s="1" t="s">
@@ -1517,21 +1810,21 @@
       <c r="AY15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA15" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="n">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1543,22 +1836,22 @@
       <c r="M16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="n">
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
         <v>4370</v>
       </c>
-      <c r="AM16" s="1" t="n">
+      <c r="AM16" s="1">
         <v>15</v>
       </c>
       <c r="AN16" s="1" t="s">
@@ -1567,7 +1860,7 @@
       <c r="AO16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ16" s="1" t="n">
+      <c r="AQ16" s="1">
         <v>1</v>
       </c>
       <c r="AS16" s="1" t="s">
@@ -1576,7 +1869,7 @@
       <c r="AT16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV16" s="1" t="n">
+      <c r="AV16" s="1">
         <v>1</v>
       </c>
       <c r="AX16" s="1" t="s">
@@ -1585,21 +1878,21 @@
       <c r="AY16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA16" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1611,22 +1904,22 @@
       <c r="M17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1" t="n">
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
         <v>5380</v>
       </c>
-      <c r="AM17" s="1" t="n">
+      <c r="AM17" s="1">
         <v>16</v>
       </c>
       <c r="AN17" s="1" t="s">
@@ -1635,7 +1928,7 @@
       <c r="AO17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ17" s="1" t="n">
+      <c r="AQ17" s="1">
         <v>1</v>
       </c>
       <c r="AS17" s="1" t="s">
@@ -1644,7 +1937,7 @@
       <c r="AT17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV17" s="1" t="n">
+      <c r="AV17" s="1">
         <v>1</v>
       </c>
       <c r="AX17" s="1" t="s">
@@ -1653,21 +1946,21 @@
       <c r="AY17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA17" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="n">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1679,22 +1972,22 @@
       <c r="M18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="n">
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
         <v>1450</v>
       </c>
-      <c r="AM18" s="1" t="n">
+      <c r="AM18" s="1">
         <v>1</v>
       </c>
       <c r="AN18" s="1" t="s">
@@ -1703,7 +1996,7 @@
       <c r="AO18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ18" s="1" t="n">
+      <c r="AQ18" s="1">
         <v>1</v>
       </c>
       <c r="AS18" s="1" t="s">
@@ -1712,7 +2005,7 @@
       <c r="AT18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV18" s="1" t="n">
+      <c r="AV18" s="1">
         <v>1</v>
       </c>
       <c r="AX18" s="1" t="s">
@@ -1721,21 +2014,21 @@
       <c r="AY18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="n">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1747,22 +2040,22 @@
       <c r="M19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1" t="n">
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
         <v>2160</v>
       </c>
-      <c r="AM19" s="1" t="n">
+      <c r="AM19" s="1">
         <v>2</v>
       </c>
       <c r="AN19" s="1" t="s">
@@ -1771,7 +2064,7 @@
       <c r="AO19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ19" s="1" t="n">
+      <c r="AQ19" s="1">
         <v>1</v>
       </c>
       <c r="AS19" s="1" t="s">
@@ -1780,7 +2073,7 @@
       <c r="AT19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV19" s="1" t="n">
+      <c r="AV19" s="1">
         <v>1</v>
       </c>
       <c r="AX19" s="1" t="s">
@@ -1789,21 +2082,21 @@
       <c r="AY19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="n">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1815,22 +2108,22 @@
       <c r="M20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1" t="n">
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
         <v>1940</v>
       </c>
-      <c r="AM20" s="1" t="n">
+      <c r="AM20" s="1">
         <v>3</v>
       </c>
       <c r="AN20" s="1" t="s">
@@ -1839,7 +2132,7 @@
       <c r="AO20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ20" s="1" t="n">
+      <c r="AQ20" s="1">
         <v>1</v>
       </c>
       <c r="AS20" s="1" t="s">
@@ -1848,7 +2141,7 @@
       <c r="AT20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV20" s="1" t="n">
+      <c r="AV20" s="1">
         <v>1</v>
       </c>
       <c r="AX20" s="1" t="s">
@@ -1857,21 +2150,21 @@
       <c r="AY20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1883,22 +2176,22 @@
       <c r="M21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1" t="n">
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
         <v>2650</v>
       </c>
-      <c r="AM21" s="1" t="n">
+      <c r="AM21" s="1">
         <v>4</v>
       </c>
       <c r="AN21" s="1" t="s">
@@ -1907,7 +2200,7 @@
       <c r="AO21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ21" s="1" t="n">
+      <c r="AQ21" s="1">
         <v>1</v>
       </c>
       <c r="AS21" s="1" t="s">
@@ -1916,7 +2209,7 @@
       <c r="AT21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV21" s="1" t="n">
+      <c r="AV21" s="1">
         <v>1</v>
       </c>
       <c r="AX21" s="1" t="s">
@@ -1925,21 +2218,21 @@
       <c r="AY21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA21" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1951,22 +2244,22 @@
       <c r="M22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1" t="n">
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
         <v>2150</v>
       </c>
-      <c r="AM22" s="1" t="n">
+      <c r="AM22" s="1">
         <v>5</v>
       </c>
       <c r="AN22" s="1" t="s">
@@ -1975,7 +2268,7 @@
       <c r="AO22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AQ22" s="1" t="n">
+      <c r="AQ22" s="1">
         <v>1</v>
       </c>
       <c r="AS22" s="1" t="s">
@@ -1984,7 +2277,7 @@
       <c r="AT22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV22" s="1" t="n">
+      <c r="AV22" s="1">
         <v>1</v>
       </c>
       <c r="AX22" s="1" t="s">
@@ -1993,21 +2286,21 @@
       <c r="AY22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA22" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="n">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2019,22 +2312,22 @@
       <c r="M23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1" t="n">
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
         <v>2890</v>
       </c>
-      <c r="AM23" s="1" t="n">
+      <c r="AM23" s="1">
         <v>6</v>
       </c>
       <c r="AN23" s="1" t="s">
@@ -2043,7 +2336,7 @@
       <c r="AO23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AQ23" s="1" t="n">
+      <c r="AQ23" s="1">
         <v>1</v>
       </c>
       <c r="AS23" s="1" t="s">
@@ -2052,7 +2345,7 @@
       <c r="AT23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV23" s="1" t="n">
+      <c r="AV23" s="1">
         <v>1</v>
       </c>
       <c r="AX23" s="1" t="s">
@@ -2061,21 +2354,21 @@
       <c r="AY23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA23" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="n">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2087,22 +2380,22 @@
       <c r="M24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1" t="n">
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
         <v>2640</v>
       </c>
-      <c r="AM24" s="1" t="n">
+      <c r="AM24" s="1">
         <v>7</v>
       </c>
       <c r="AN24" s="1" t="s">
@@ -2111,7 +2404,7 @@
       <c r="AO24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AQ24" s="1" t="n">
+      <c r="AQ24" s="1">
         <v>1</v>
       </c>
       <c r="AS24" s="1" t="s">
@@ -2120,7 +2413,7 @@
       <c r="AT24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV24" s="1" t="n">
+      <c r="AV24" s="1">
         <v>1</v>
       </c>
       <c r="AX24" s="1" t="s">
@@ -2129,21 +2422,21 @@
       <c r="AY24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="n">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2155,22 +2448,22 @@
       <c r="M25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1" t="n">
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
         <v>3380</v>
       </c>
-      <c r="AM25" s="1" t="n">
+      <c r="AM25" s="1">
         <v>8</v>
       </c>
       <c r="AN25" s="1" t="s">
@@ -2179,7 +2472,7 @@
       <c r="AO25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AQ25" s="1" t="n">
+      <c r="AQ25" s="1">
         <v>1</v>
       </c>
       <c r="AS25" s="1" t="s">
@@ -2188,7 +2481,7 @@
       <c r="AT25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV25" s="1" t="n">
+      <c r="AV25" s="1">
         <v>1</v>
       </c>
       <c r="AX25" s="1" t="s">
@@ -2197,21 +2490,21 @@
       <c r="AY25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA25" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="n">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2223,22 +2516,22 @@
       <c r="M26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1" t="n">
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
         <v>2950</v>
       </c>
-      <c r="AM26" s="1" t="n">
+      <c r="AM26" s="1">
         <v>9</v>
       </c>
       <c r="AN26" s="1" t="s">
@@ -2247,7 +2540,7 @@
       <c r="AO26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ26" s="1" t="n">
+      <c r="AQ26" s="1">
         <v>1</v>
       </c>
       <c r="AS26" s="1" t="s">
@@ -2256,7 +2549,7 @@
       <c r="AT26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV26" s="1" t="n">
+      <c r="AV26" s="1">
         <v>1</v>
       </c>
       <c r="AX26" s="1" t="s">
@@ -2265,21 +2558,21 @@
       <c r="AY26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2291,22 +2584,22 @@
       <c r="M27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1" t="n">
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
         <v>3780</v>
       </c>
-      <c r="AM27" s="1" t="n">
+      <c r="AM27" s="1">
         <v>10</v>
       </c>
       <c r="AN27" s="1" t="s">
@@ -2315,7 +2608,7 @@
       <c r="AO27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ27" s="1" t="n">
+      <c r="AQ27" s="1">
         <v>1</v>
       </c>
       <c r="AS27" s="1" t="s">
@@ -2324,7 +2617,7 @@
       <c r="AT27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV27" s="1" t="n">
+      <c r="AV27" s="1">
         <v>1</v>
       </c>
       <c r="AX27" s="1" t="s">
@@ -2333,21 +2626,21 @@
       <c r="AY27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA27" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="n">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2359,22 +2652,22 @@
       <c r="M28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="n">
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
         <v>3440</v>
       </c>
-      <c r="AM28" s="1" t="n">
+      <c r="AM28" s="1">
         <v>11</v>
       </c>
       <c r="AN28" s="1" t="s">
@@ -2383,7 +2676,7 @@
       <c r="AO28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ28" s="1" t="n">
+      <c r="AQ28" s="1">
         <v>1</v>
       </c>
       <c r="AS28" s="1" t="s">
@@ -2392,7 +2685,7 @@
       <c r="AT28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV28" s="1" t="n">
+      <c r="AV28" s="1">
         <v>1</v>
       </c>
       <c r="AX28" s="1" t="s">
@@ -2401,21 +2694,21 @@
       <c r="AY28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="n">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2427,22 +2720,22 @@
       <c r="M29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1" t="n">
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
         <v>4270</v>
       </c>
-      <c r="AM29" s="1" t="n">
+      <c r="AM29" s="1">
         <v>12</v>
       </c>
       <c r="AN29" s="1" t="s">
@@ -2451,7 +2744,7 @@
       <c r="AO29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ29" s="1" t="n">
+      <c r="AQ29" s="1">
         <v>1</v>
       </c>
       <c r="AS29" s="1" t="s">
@@ -2460,7 +2753,7 @@
       <c r="AT29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV29" s="1" t="n">
+      <c r="AV29" s="1">
         <v>1</v>
       </c>
       <c r="AX29" s="1" t="s">
@@ -2469,21 +2762,21 @@
       <c r="AY29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA29" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="n">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2495,22 +2788,22 @@
       <c r="M30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1" t="n">
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
         <v>3790</v>
       </c>
-      <c r="AM30" s="1" t="n">
+      <c r="AM30" s="1">
         <v>13</v>
       </c>
       <c r="AN30" s="1" t="s">
@@ -2519,7 +2812,7 @@
       <c r="AO30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ30" s="1" t="n">
+      <c r="AQ30" s="1">
         <v>1</v>
       </c>
       <c r="AS30" s="1" t="s">
@@ -2528,7 +2821,7 @@
       <c r="AT30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV30" s="1" t="n">
+      <c r="AV30" s="1">
         <v>1</v>
       </c>
       <c r="AX30" s="1" t="s">
@@ -2537,21 +2830,21 @@
       <c r="AY30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA30" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2563,22 +2856,22 @@
       <c r="M31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1" t="n">
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
         <v>4750</v>
       </c>
-      <c r="AM31" s="1" t="n">
+      <c r="AM31" s="1">
         <v>14</v>
       </c>
       <c r="AN31" s="1" t="s">
@@ -2587,7 +2880,7 @@
       <c r="AO31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ31" s="1" t="n">
+      <c r="AQ31" s="1">
         <v>1</v>
       </c>
       <c r="AS31" s="1" t="s">
@@ -2596,7 +2889,7 @@
       <c r="AT31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV31" s="1" t="n">
+      <c r="AV31" s="1">
         <v>1</v>
       </c>
       <c r="AX31" s="1" t="s">
@@ -2605,21 +2898,21 @@
       <c r="AY31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA31" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="n">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2631,22 +2924,22 @@
       <c r="M32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1" t="n">
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
         <v>4280</v>
       </c>
-      <c r="AM32" s="1" t="n">
+      <c r="AM32" s="1">
         <v>15</v>
       </c>
       <c r="AN32" s="1" t="s">
@@ -2655,7 +2948,7 @@
       <c r="AO32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ32" s="1" t="n">
+      <c r="AQ32" s="1">
         <v>1</v>
       </c>
       <c r="AS32" s="1" t="s">
@@ -2664,7 +2957,7 @@
       <c r="AT32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV32" s="1" t="n">
+      <c r="AV32" s="1">
         <v>1</v>
       </c>
       <c r="AX32" s="1" t="s">
@@ -2673,21 +2966,21 @@
       <c r="AY32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA32" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="n">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2699,22 +2992,22 @@
       <c r="M33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1" t="n">
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
         <v>5240</v>
       </c>
-      <c r="AM33" s="1" t="n">
+      <c r="AM33" s="1">
         <v>16</v>
       </c>
       <c r="AN33" s="1" t="s">
@@ -2723,7 +3016,7 @@
       <c r="AO33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ33" s="1" t="n">
+      <c r="AQ33" s="1">
         <v>1</v>
       </c>
       <c r="AS33" s="1" t="s">
@@ -2732,7 +3025,7 @@
       <c r="AT33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV33" s="1" t="n">
+      <c r="AV33" s="1">
         <v>1</v>
       </c>
       <c r="AX33" s="1" t="s">
@@ -2741,21 +3034,21 @@
       <c r="AY33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA33" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2767,22 +3060,22 @@
       <c r="M34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="1" t="n">
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
         <v>1390</v>
       </c>
-      <c r="AM34" s="1" t="n">
+      <c r="AM34" s="1">
         <v>1</v>
       </c>
       <c r="AN34" s="1" t="s">
@@ -2791,7 +3084,7 @@
       <c r="AO34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ34" s="1" t="n">
+      <c r="AQ34" s="1">
         <v>1</v>
       </c>
       <c r="AS34" s="1" t="s">
@@ -2800,7 +3093,7 @@
       <c r="AT34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV34" s="1" t="n">
+      <c r="AV34" s="1">
         <v>1</v>
       </c>
       <c r="AX34" s="1" t="s">
@@ -2809,21 +3102,21 @@
       <c r="AY34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA34" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2835,22 +3128,22 @@
       <c r="M35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1" t="n">
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
         <v>2060</v>
       </c>
-      <c r="AM35" s="1" t="n">
+      <c r="AM35" s="1">
         <v>2</v>
       </c>
       <c r="AN35" s="1" t="s">
@@ -2859,7 +3152,7 @@
       <c r="AO35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ35" s="1" t="n">
+      <c r="AQ35" s="1">
         <v>1</v>
       </c>
       <c r="AS35" s="1" t="s">
@@ -2868,7 +3161,7 @@
       <c r="AT35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV35" s="1" t="n">
+      <c r="AV35" s="1">
         <v>1</v>
       </c>
       <c r="AX35" s="1" t="s">
@@ -2877,21 +3170,21 @@
       <c r="AY35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA35" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="n">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2903,22 +3196,22 @@
       <c r="M36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1" t="n">
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
         <v>1880</v>
       </c>
-      <c r="AM36" s="1" t="n">
+      <c r="AM36" s="1">
         <v>3</v>
       </c>
       <c r="AN36" s="1" t="s">
@@ -2927,7 +3220,7 @@
       <c r="AO36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ36" s="1" t="n">
+      <c r="AQ36" s="1">
         <v>1</v>
       </c>
       <c r="AS36" s="1" t="s">
@@ -2936,7 +3229,7 @@
       <c r="AT36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV36" s="1" t="n">
+      <c r="AV36" s="1">
         <v>1</v>
       </c>
       <c r="AX36" s="1" t="s">
@@ -2945,21 +3238,21 @@
       <c r="AY36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA36" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2971,22 +3264,22 @@
       <c r="M37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="1" t="n">
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
         <v>2550</v>
       </c>
-      <c r="AM37" s="1" t="n">
+      <c r="AM37" s="1">
         <v>4</v>
       </c>
       <c r="AN37" s="1" t="s">
@@ -2995,7 +3288,7 @@
       <c r="AO37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ37" s="1" t="n">
+      <c r="AQ37" s="1">
         <v>1</v>
       </c>
       <c r="AS37" s="1" t="s">
@@ -3004,7 +3297,7 @@
       <c r="AT37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV37" s="1" t="n">
+      <c r="AV37" s="1">
         <v>1</v>
       </c>
       <c r="AX37" s="1" t="s">
@@ -3013,21 +3306,21 @@
       <c r="AY37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA37" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="n">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3039,22 +3332,22 @@
       <c r="M38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="1" t="n">
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
         <v>2050</v>
       </c>
-      <c r="AM38" s="1" t="n">
+      <c r="AM38" s="1">
         <v>5</v>
       </c>
       <c r="AN38" s="1" t="s">
@@ -3063,7 +3356,7 @@
       <c r="AO38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ38" s="1" t="n">
+      <c r="AQ38" s="1">
         <v>1</v>
       </c>
       <c r="AS38" s="1" t="s">
@@ -3072,7 +3365,7 @@
       <c r="AT38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV38" s="1" t="n">
+      <c r="AV38" s="1">
         <v>1</v>
       </c>
       <c r="AX38" s="1" t="s">
@@ -3081,21 +3374,21 @@
       <c r="AY38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA38" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="n">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3107,22 +3400,22 @@
       <c r="M39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1" t="n">
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
         <v>2790</v>
       </c>
-      <c r="AM39" s="1" t="n">
+      <c r="AM39" s="1">
         <v>6</v>
       </c>
       <c r="AN39" s="1" t="s">
@@ -3131,7 +3424,7 @@
       <c r="AO39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ39" s="1" t="n">
+      <c r="AQ39" s="1">
         <v>1</v>
       </c>
       <c r="AS39" s="1" t="s">
@@ -3140,7 +3433,7 @@
       <c r="AT39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV39" s="1" t="n">
+      <c r="AV39" s="1">
         <v>1</v>
       </c>
       <c r="AX39" s="1" t="s">
@@ -3149,21 +3442,21 @@
       <c r="AY39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA39" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="n">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3175,22 +3468,22 @@
       <c r="M40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="1" t="n">
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
         <v>2540</v>
       </c>
-      <c r="AM40" s="1" t="n">
+      <c r="AM40" s="1">
         <v>7</v>
       </c>
       <c r="AN40" s="1" t="s">
@@ -3199,7 +3492,7 @@
       <c r="AO40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ40" s="1" t="n">
+      <c r="AQ40" s="1">
         <v>1</v>
       </c>
       <c r="AS40" s="1" t="s">
@@ -3208,7 +3501,7 @@
       <c r="AT40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV40" s="1" t="n">
+      <c r="AV40" s="1">
         <v>1</v>
       </c>
       <c r="AX40" s="1" t="s">
@@ -3217,21 +3510,21 @@
       <c r="AY40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA40" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="n">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3243,22 +3536,22 @@
       <c r="M41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1" t="n">
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
         <v>3280</v>
       </c>
-      <c r="AM41" s="1" t="n">
+      <c r="AM41" s="1">
         <v>8</v>
       </c>
       <c r="AN41" s="1" t="s">
@@ -3267,7 +3560,7 @@
       <c r="AO41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ41" s="1" t="n">
+      <c r="AQ41" s="1">
         <v>1</v>
       </c>
       <c r="AS41" s="1" t="s">
@@ -3276,7 +3569,7 @@
       <c r="AT41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV41" s="1" t="n">
+      <c r="AV41" s="1">
         <v>1</v>
       </c>
       <c r="AX41" s="1" t="s">
@@ -3285,21 +3578,21 @@
       <c r="AY41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA41" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="n">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3311,22 +3604,22 @@
       <c r="M42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="1" t="n">
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
         <v>2900</v>
       </c>
-      <c r="AM42" s="1" t="n">
+      <c r="AM42" s="1">
         <v>9</v>
       </c>
       <c r="AN42" s="1" t="s">
@@ -3335,7 +3628,7 @@
       <c r="AO42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ42" s="1" t="n">
+      <c r="AQ42" s="1">
         <v>1</v>
       </c>
       <c r="AS42" s="1" t="s">
@@ -3344,7 +3637,7 @@
       <c r="AT42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV42" s="1" t="n">
+      <c r="AV42" s="1">
         <v>1</v>
       </c>
       <c r="AX42" s="1" t="s">
@@ -3353,21 +3646,21 @@
       <c r="AY42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA42" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="n">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3379,22 +3672,22 @@
       <c r="M43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="1" t="n">
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
         <v>3690</v>
       </c>
-      <c r="AM43" s="1" t="n">
+      <c r="AM43" s="1">
         <v>10</v>
       </c>
       <c r="AN43" s="1" t="s">
@@ -3403,7 +3696,7 @@
       <c r="AO43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ43" s="1" t="n">
+      <c r="AQ43" s="1">
         <v>1</v>
       </c>
       <c r="AS43" s="1" t="s">
@@ -3412,7 +3705,7 @@
       <c r="AT43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV43" s="1" t="n">
+      <c r="AV43" s="1">
         <v>1</v>
       </c>
       <c r="AX43" s="1" t="s">
@@ -3421,21 +3714,21 @@
       <c r="AY43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA43" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="n">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3447,22 +3740,22 @@
       <c r="M44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="1" t="n">
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
         <v>3390</v>
       </c>
-      <c r="AM44" s="1" t="n">
+      <c r="AM44" s="1">
         <v>11</v>
       </c>
       <c r="AN44" s="1" t="s">
@@ -3471,7 +3764,7 @@
       <c r="AO44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ44" s="1" t="n">
+      <c r="AQ44" s="1">
         <v>1</v>
       </c>
       <c r="AS44" s="1" t="s">
@@ -3480,7 +3773,7 @@
       <c r="AT44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV44" s="1" t="n">
+      <c r="AV44" s="1">
         <v>1</v>
       </c>
       <c r="AX44" s="1" t="s">
@@ -3489,21 +3782,21 @@
       <c r="AY44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA44" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="n">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3515,22 +3808,22 @@
       <c r="M45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="1" t="n">
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
         <v>4180</v>
       </c>
-      <c r="AM45" s="1" t="n">
+      <c r="AM45" s="1">
         <v>12</v>
       </c>
       <c r="AN45" s="1" t="s">
@@ -3539,7 +3832,7 @@
       <c r="AO45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ45" s="1" t="n">
+      <c r="AQ45" s="1">
         <v>1</v>
       </c>
       <c r="AS45" s="1" t="s">
@@ -3548,7 +3841,7 @@
       <c r="AT45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV45" s="1" t="n">
+      <c r="AV45" s="1">
         <v>1</v>
       </c>
       <c r="AX45" s="1" t="s">
@@ -3557,21 +3850,21 @@
       <c r="AY45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA45" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="n">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3583,22 +3876,22 @@
       <c r="M46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="1" t="n">
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
         <v>3700</v>
       </c>
-      <c r="AM46" s="1" t="n">
+      <c r="AM46" s="1">
         <v>13</v>
       </c>
       <c r="AN46" s="1" t="s">
@@ -3607,7 +3900,7 @@
       <c r="AO46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ46" s="1" t="n">
+      <c r="AQ46" s="1">
         <v>1</v>
       </c>
       <c r="AS46" s="1" t="s">
@@ -3616,7 +3909,7 @@
       <c r="AT46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV46" s="1" t="n">
+      <c r="AV46" s="1">
         <v>1</v>
       </c>
       <c r="AX46" s="1" t="s">
@@ -3625,21 +3918,21 @@
       <c r="AY46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA46" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="n">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3651,22 +3944,22 @@
       <c r="M47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1" t="n">
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
         <v>4650</v>
       </c>
-      <c r="AM47" s="1" t="n">
+      <c r="AM47" s="1">
         <v>14</v>
       </c>
       <c r="AN47" s="1" t="s">
@@ -3675,7 +3968,7 @@
       <c r="AO47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ47" s="1" t="n">
+      <c r="AQ47" s="1">
         <v>1</v>
       </c>
       <c r="AS47" s="1" t="s">
@@ -3684,7 +3977,7 @@
       <c r="AT47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV47" s="1" t="n">
+      <c r="AV47" s="1">
         <v>1</v>
       </c>
       <c r="AX47" s="1" t="s">
@@ -3693,21 +3986,21 @@
       <c r="AY47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BA47" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="n">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3719,22 +4012,22 @@
       <c r="M48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="1" t="n">
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
         <v>4190</v>
       </c>
-      <c r="AM48" s="1" t="n">
+      <c r="AM48" s="1">
         <v>15</v>
       </c>
       <c r="AN48" s="1" t="s">
@@ -3743,7 +4036,7 @@
       <c r="AO48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ48" s="1" t="n">
+      <c r="AQ48" s="1">
         <v>1</v>
       </c>
       <c r="AS48" s="1" t="s">
@@ -3752,7 +4045,7 @@
       <c r="AT48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AV48" s="1" t="n">
+      <c r="AV48" s="1">
         <v>1</v>
       </c>
       <c r="AX48" s="1" t="s">
@@ -3761,21 +4054,21 @@
       <c r="AY48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA48" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="n">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -3787,22 +4080,22 @@
       <c r="M49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="n">
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
         <v>5140</v>
       </c>
-      <c r="AM49" s="2" t="n">
+      <c r="AM49" s="2">
         <v>16</v>
       </c>
       <c r="AN49" s="2" t="s">
@@ -3811,7 +4104,7 @@
       <c r="AO49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AQ49" s="2" t="n">
+      <c r="AQ49" s="2">
         <v>1</v>
       </c>
       <c r="AS49" s="2" t="s">
@@ -3820,7 +4113,7 @@
       <c r="AT49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AV49" s="2" t="n">
+      <c r="AV49" s="2">
         <v>1</v>
       </c>
       <c r="AX49" s="2" t="s">
@@ -3829,402 +4122,3277 @@
       <c r="AY49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BA49" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="BA50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AV51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="1"/>
-      <c r="BA51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AV52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="BA52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AV53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="BA53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="B54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
-      <c r="AV54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
-      <c r="BA54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
-      <c r="B55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AV55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="BA55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="BA56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3"/>
-      <c r="B57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AV57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
-      <c r="BA57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
-      <c r="B58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AV58" s="1"/>
-      <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
-      <c r="BA58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-      <c r="AQ59" s="1"/>
-      <c r="AS59" s="1"/>
-      <c r="AT59" s="1"/>
-      <c r="AV59" s="1"/>
-      <c r="AX59" s="1"/>
-      <c r="AY59" s="1"/>
-      <c r="BA59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AQ60" s="1"/>
-      <c r="AS60" s="1"/>
-      <c r="AT60" s="1"/>
-      <c r="AV60" s="1"/>
-      <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
-      <c r="BA60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
-      <c r="B61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="BA61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-      <c r="AQ62" s="1"/>
-      <c r="AS62" s="1"/>
-      <c r="AT62" s="1"/>
-      <c r="AV62" s="1"/>
-      <c r="AX62" s="1"/>
-      <c r="AY62" s="1"/>
-      <c r="BA62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
-      <c r="B63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="BA63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3"/>
-      <c r="B64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
-      <c r="AV64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="BA64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
-      <c r="B65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AV65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="BA65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="BA49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L50" t="s">
+        <v>61</v>
+      </c>
+      <c r="M50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1650</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" t="s">
+        <v>61</v>
+      </c>
+      <c r="M51" t="s">
+        <v>62</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>2450</v>
+      </c>
+      <c r="AM51">
+        <v>2</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV51">
+        <v>1</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" t="s">
+        <v>61</v>
+      </c>
+      <c r="M52" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>2140</v>
+      </c>
+      <c r="AM52">
+        <v>3</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53" t="s">
+        <v>62</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>2940</v>
+      </c>
+      <c r="AM53">
+        <v>4</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV53">
+        <v>1</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54" t="s">
+        <v>62</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>2880</v>
+      </c>
+      <c r="AM54">
+        <v>5</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV54">
+        <v>1</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M55" t="s">
+        <v>62</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>3250</v>
+      </c>
+      <c r="AM55">
+        <v>6</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV55">
+        <v>1</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" t="s">
+        <v>61</v>
+      </c>
+      <c r="M56" t="s">
+        <v>62</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>3370</v>
+      </c>
+      <c r="AM56">
+        <v>7</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV56">
+        <v>1</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" t="s">
+        <v>61</v>
+      </c>
+      <c r="M57" t="s">
+        <v>62</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>3740</v>
+      </c>
+      <c r="AM57">
+        <v>8</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV57">
+        <v>1</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" t="s">
+        <v>61</v>
+      </c>
+      <c r="M58" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>3390</v>
+      </c>
+      <c r="AM58">
+        <v>9</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV58">
+        <v>1</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M59" t="s">
+        <v>62</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>4450</v>
+      </c>
+      <c r="AM59">
+        <v>10</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV59">
+        <v>1</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M60" t="s">
+        <v>62</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>3880</v>
+      </c>
+      <c r="AM60">
+        <v>11</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV60">
+        <v>1</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" t="s">
+        <v>62</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>4940</v>
+      </c>
+      <c r="AM61">
+        <v>12</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV61">
+        <v>1</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" t="s">
+        <v>62</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>4250</v>
+      </c>
+      <c r="AM62">
+        <v>13</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV62">
+        <v>1</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" t="s">
+        <v>62</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>5690</v>
+      </c>
+      <c r="AM63">
+        <v>14</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV63">
+        <v>1</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" t="s">
+        <v>62</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>4740</v>
+      </c>
+      <c r="AM64">
+        <v>15</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV64">
+        <v>1</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" t="s">
+        <v>62</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>6180</v>
+      </c>
+      <c r="AM65">
+        <v>16</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV65">
+        <v>1</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" t="s">
+        <v>61</v>
+      </c>
+      <c r="M66" t="s">
+        <v>62</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1550</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV66">
+        <v>1</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" t="s">
+        <v>61</v>
+      </c>
+      <c r="M67" t="s">
+        <v>62</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>2260</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV67">
+        <v>1</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" t="s">
+        <v>61</v>
+      </c>
+      <c r="M68" t="s">
+        <v>62</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>2040</v>
+      </c>
+      <c r="AM68">
+        <v>3</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV68">
+        <v>1</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" t="s">
+        <v>61</v>
+      </c>
+      <c r="M69" t="s">
+        <v>62</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>2750</v>
+      </c>
+      <c r="AM69">
+        <v>4</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV69">
+        <v>1</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" t="s">
+        <v>61</v>
+      </c>
+      <c r="M70" t="s">
+        <v>62</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>2290</v>
+      </c>
+      <c r="AM70">
+        <v>5</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV70">
+        <v>1</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" t="s">
+        <v>61</v>
+      </c>
+      <c r="M71" t="s">
+        <v>62</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>3060</v>
+      </c>
+      <c r="AM71">
+        <v>6</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV71">
+        <v>1</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M72" t="s">
+        <v>62</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>2780</v>
+      </c>
+      <c r="AM72">
+        <v>7</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV72">
+        <v>1</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" t="s">
+        <v>61</v>
+      </c>
+      <c r="M73" t="s">
+        <v>62</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>3550</v>
+      </c>
+      <c r="AM73">
+        <v>8</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV73">
+        <v>1</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" t="s">
+        <v>61</v>
+      </c>
+      <c r="M74" t="s">
+        <v>62</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>3150</v>
+      </c>
+      <c r="AM74">
+        <v>9</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV74">
+        <v>1</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" t="s">
+        <v>61</v>
+      </c>
+      <c r="M75" t="s">
+        <v>62</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>4060</v>
+      </c>
+      <c r="AM75">
+        <v>10</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV75">
+        <v>1</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" t="s">
+        <v>61</v>
+      </c>
+      <c r="M76" t="s">
+        <v>62</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>3640</v>
+      </c>
+      <c r="AM76">
+        <v>11</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV76">
+        <v>1</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" t="s">
+        <v>61</v>
+      </c>
+      <c r="M77" t="s">
+        <v>62</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>4550</v>
+      </c>
+      <c r="AM77">
+        <v>12</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV77">
+        <v>1</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78" t="s">
+        <v>61</v>
+      </c>
+      <c r="M78" t="s">
+        <v>62</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>4050</v>
+      </c>
+      <c r="AM78">
+        <v>13</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV78">
+        <v>1</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>60</v>
+      </c>
+      <c r="L79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M79" t="s">
+        <v>62</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>5150</v>
+      </c>
+      <c r="AM79">
+        <v>14</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV79">
+        <v>1</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" t="s">
+        <v>61</v>
+      </c>
+      <c r="M80" t="s">
+        <v>62</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>4540</v>
+      </c>
+      <c r="AM80">
+        <v>15</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV80">
+        <v>1</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>60</v>
+      </c>
+      <c r="L81" t="s">
+        <v>61</v>
+      </c>
+      <c r="M81" t="s">
+        <v>62</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>5640</v>
+      </c>
+      <c r="AM81">
+        <v>16</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV81">
+        <v>1</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>60</v>
+      </c>
+      <c r="L82" t="s">
+        <v>61</v>
+      </c>
+      <c r="M82" t="s">
+        <v>62</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>1590</v>
+      </c>
+      <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV82">
+        <v>1</v>
+      </c>
+      <c r="AX82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY82" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>60</v>
+      </c>
+      <c r="L83" t="s">
+        <v>61</v>
+      </c>
+      <c r="M83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>2390</v>
+      </c>
+      <c r="AM83">
+        <v>2</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT83" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV83">
+        <v>1</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY83" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>60</v>
+      </c>
+      <c r="L84" t="s">
+        <v>61</v>
+      </c>
+      <c r="M84" t="s">
+        <v>62</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>2080</v>
+      </c>
+      <c r="AM84">
+        <v>3</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV84">
+        <v>1</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>60</v>
+      </c>
+      <c r="L85" t="s">
+        <v>61</v>
+      </c>
+      <c r="M85" t="s">
+        <v>62</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>2880</v>
+      </c>
+      <c r="AM85">
+        <v>4</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV85">
+        <v>1</v>
+      </c>
+      <c r="AX85" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY85" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" t="s">
+        <v>61</v>
+      </c>
+      <c r="M86" t="s">
+        <v>62</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>2800</v>
+      </c>
+      <c r="AM86">
+        <v>5</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT86" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV86">
+        <v>1</v>
+      </c>
+      <c r="AX86" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY86" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>60</v>
+      </c>
+      <c r="L87" t="s">
+        <v>61</v>
+      </c>
+      <c r="M87" t="s">
+        <v>62</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>3160</v>
+      </c>
+      <c r="AM87">
+        <v>6</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT87" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV87">
+        <v>1</v>
+      </c>
+      <c r="AX87" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY87" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" t="s">
+        <v>61</v>
+      </c>
+      <c r="M88" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>3290</v>
+      </c>
+      <c r="AM88">
+        <v>7</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV88">
+        <v>1</v>
+      </c>
+      <c r="AX88" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY88" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>60</v>
+      </c>
+      <c r="L89" t="s">
+        <v>61</v>
+      </c>
+      <c r="M89" t="s">
+        <v>62</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>3650</v>
+      </c>
+      <c r="AM89">
+        <v>8</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT89" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV89">
+        <v>1</v>
+      </c>
+      <c r="AX89" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY89" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>60</v>
+      </c>
+      <c r="L90" t="s">
+        <v>61</v>
+      </c>
+      <c r="M90" t="s">
+        <v>62</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>3290</v>
+      </c>
+      <c r="AM90">
+        <v>9</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT90" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV90">
+        <v>1</v>
+      </c>
+      <c r="AX90" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY90" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" t="s">
+        <v>61</v>
+      </c>
+      <c r="M91" t="s">
+        <v>62</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>4290</v>
+      </c>
+      <c r="AM91">
+        <v>10</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT91" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
+      <c r="AX91" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY91" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>60</v>
+      </c>
+      <c r="L92" t="s">
+        <v>61</v>
+      </c>
+      <c r="M92" t="s">
+        <v>62</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>3780</v>
+      </c>
+      <c r="AM92">
+        <v>11</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT92" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV92">
+        <v>1</v>
+      </c>
+      <c r="AX92" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY92" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>60</v>
+      </c>
+      <c r="L93" t="s">
+        <v>61</v>
+      </c>
+      <c r="M93" t="s">
+        <v>62</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>4780</v>
+      </c>
+      <c r="AM93">
+        <v>12</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AS93" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV93">
+        <v>1</v>
+      </c>
+      <c r="AX93" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY93" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>60</v>
+      </c>
+      <c r="L94" t="s">
+        <v>61</v>
+      </c>
+      <c r="M94" t="s">
+        <v>62</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>4150</v>
+      </c>
+      <c r="AM94">
+        <v>13</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT94" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV94">
+        <v>1</v>
+      </c>
+      <c r="AX94" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY94" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>60</v>
+      </c>
+      <c r="L95" t="s">
+        <v>61</v>
+      </c>
+      <c r="M95" t="s">
+        <v>62</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>5390</v>
+      </c>
+      <c r="AM95">
+        <v>14</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT95" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV95">
+        <v>1</v>
+      </c>
+      <c r="AX95" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY95" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>60</v>
+      </c>
+      <c r="L96" t="s">
+        <v>61</v>
+      </c>
+      <c r="M96" t="s">
+        <v>62</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>4640</v>
+      </c>
+      <c r="AM96">
+        <v>15</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV96">
+        <v>1</v>
+      </c>
+      <c r="AX96" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY96" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>60</v>
+      </c>
+      <c r="L97" t="s">
+        <v>61</v>
+      </c>
+      <c r="M97" t="s">
+        <v>62</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>5880</v>
+      </c>
+      <c r="AM97">
+        <v>16</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT97" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV97">
+        <v>1</v>
+      </c>
+      <c r="AX97" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY97" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA97">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>